--- a/api/attempt/downloads/28a6fe_รู้จักโรคติดต่อทางเพศสัมพันธ์.xlsx
+++ b/api/attempt/downloads/28a6fe_รู้จักโรคติดต่อทางเพศสัมพันธ์.xlsx
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -475,7 +475,7 @@
         <v>วันที่</v>
       </c>
       <c r="B1" s="3" t="str">
-        <v>10/02/2025</v>
+        <v>23/03/2025</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
@@ -499,7 +499,7 @@
         <v>โรงเรียน</v>
       </c>
       <c r="B4" s="3" t="str">
-        <v>knw</v>
+        <v>แก่นนครวิทยาลัย</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -546,25 +546,25 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="str">
-        <v>Viphavanee khambuya</v>
+        <v>ไพบูลย์ พลหาญ</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="str">
-        <v>20.00%</v>
+        <v>40.00%</v>
       </c>
       <c r="E8" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="str">
-        <v>60.00%</v>
+        <v>90.00%</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="3" t="str">
-        <v>40.00%</v>
+        <v>50.00%</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
@@ -572,25 +572,25 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="str">
-        <v>ไพบูลย์ พลหาญ</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4</v>
+        <v>อัษฎาวุธ แสนวิเศษ</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <v>-</v>
       </c>
       <c r="D9" s="3" t="str">
-        <v>40.00%</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
+        <v>-</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <v>-</v>
       </c>
       <c r="F9" s="3" t="str">
-        <v>100.00%</v>
-      </c>
-      <c r="G9" s="3">
-        <v>6</v>
+        <v>-</v>
+      </c>
+      <c r="G9" s="3" t="str">
+        <v>-</v>
       </c>
       <c r="H9" s="3" t="str">
-        <v>60.00%</v>
+        <v>-</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="str">
-        <v>ฉลอง  อุทิศ</v>
+        <v>มณีรัตน์ โชคชัย</v>
       </c>
       <c r="C10" s="3" t="str">
         <v>-</v>
@@ -624,25 +624,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="str">
-        <v>อัษฎาวุธ แสนวิเศษ</v>
-      </c>
-      <c r="C11" s="3" t="str">
-        <v>-</v>
+        <v>พรพิพัฒน์ คำบุยา</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4</v>
       </c>
       <c r="D11" s="3" t="str">
-        <v>-</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <v>-</v>
+        <v>40.00%</v>
+      </c>
+      <c r="E11" s="3">
+        <v>8</v>
       </c>
       <c r="F11" s="3" t="str">
-        <v>-</v>
-      </c>
-      <c r="G11" s="3" t="str">
-        <v>-</v>
+        <v>80.00%</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
       </c>
       <c r="H11" s="3" t="str">
-        <v>-</v>
+        <v>40.00%</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
@@ -650,152 +650,152 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="str">
-        <v>อุไรวรรณ ศรีเมือง</v>
-      </c>
-      <c r="C12" s="3" t="str">
-        <v>-</v>
+        <v>ภนุรุศ สง่าแสง</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6</v>
       </c>
       <c r="D12" s="3" t="str">
-        <v>-</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <v>-</v>
+        <v>60.00%</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
       </c>
       <c r="F12" s="3" t="str">
-        <v>-</v>
-      </c>
-      <c r="G12" s="3" t="str">
-        <v>-</v>
+        <v>100.00%</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
       </c>
       <c r="H12" s="3" t="str">
-        <v>-</v>
+        <v>40.00%</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="3" t="str">
-        <v>Total</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <v/>
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <v>ปฐมพร จันทรภูมี</v>
       </c>
       <c r="C13" s="3">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <v>80.00%</v>
       </c>
       <c r="E13" s="3">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <v>100.00%</v>
       </c>
       <c r="G13" s="3">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <v/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="3" t="str">
+        <v>20.00%</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="3" t="str">
-        <v>Average</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <v/>
+      <c r="A14" s="3">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <v>ชาลินี แสนโท</v>
       </c>
       <c r="C14" s="3" t="str">
-        <v>3.00</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <v>-</v>
       </c>
       <c r="E14" s="3" t="str">
-        <v>8.00</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <v>-</v>
       </c>
       <c r="G14" s="3" t="str">
-        <v>5.00</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <v/>
+        <v>-</v>
+      </c>
+      <c r="H14" s="3" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B15" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C15" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D15" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E15" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F15" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G15" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H15" s="2" t="str">
-        <v/>
+      <c r="A15" s="3">
+        <v>8</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <v>กัญญาวีร์ สีใส</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <v>80.00%</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <v>90.00%</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="str">
+        <v>10.00%</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2" t="str">
-        <v/>
-      </c>
-      <c r="B16" s="2" t="str">
-        <v/>
-      </c>
-      <c r="C16" s="2" t="str">
-        <v/>
-      </c>
-      <c r="D16" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E16" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F16" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G16" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H16" s="2" t="str">
-        <v/>
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <v>นภาพร เอี่ยมเวียง</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <v>-</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <v>-</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <v>-</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <v>-</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <v>-</v>
+      </c>
+      <c r="H16" s="3" t="str">
+        <v>-</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="3" t="str">
-        <v>สูงสุด</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <v>หลังเรียน</v>
+        <v>Total</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v/>
       </c>
       <c r="C17" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2" t="str">
         <v/>
       </c>
-      <c r="E17" s="2" t="str">
-        <v/>
+      <c r="E17" s="3">
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="str">
         <v/>
       </c>
-      <c r="G17" s="2" t="str">
-        <v/>
+      <c r="G17" s="3">
+        <v>16</v>
       </c>
       <c r="H17" s="2" t="str">
         <v/>
@@ -803,33 +803,137 @@
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="3" t="str">
+        <v>Average</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C18" s="3" t="str">
+        <v>6.00</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E18" s="3" t="str">
+        <v>9.20</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G18" s="3" t="str">
+        <v>3.20</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B19" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C19" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D19" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E19" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F19" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G19" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H19" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" s="2" t="str">
+        <v/>
+      </c>
+      <c r="B20" s="2" t="str">
+        <v/>
+      </c>
+      <c r="C20" s="2" t="str">
+        <v/>
+      </c>
+      <c r="D20" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E20" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F20" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G20" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H20" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="3" t="str">
+        <v>สูงสุด</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <v>หลังเรียน</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E21" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F21" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G21" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H21" s="2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="3" t="str">
         <v>ต่ำสุด</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B22" s="3" t="str">
         <v>หลังเรียน</v>
       </c>
-      <c r="C18" s="3">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <v/>
-      </c>
-      <c r="E18" s="2" t="str">
-        <v/>
-      </c>
-      <c r="F18" s="2" t="str">
-        <v/>
-      </c>
-      <c r="G18" s="2" t="str">
-        <v/>
-      </c>
-      <c r="H18" s="2" t="str">
+      <c r="C22" s="3">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <v/>
+      </c>
+      <c r="E22" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F22" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G22" s="2" t="str">
+        <v/>
+      </c>
+      <c r="H22" s="2" t="str">
         <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H22"/>
   </ignoredErrors>
 </worksheet>
 </file>